--- a/INDIVIDUAL_ARGUMENTS/spanking_pro.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/spanking_pro.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>#id</t>
   </si>
@@ -29,208 +28,313 @@
     <t>I think spanking should be an option. Although I believe it should be an option, I believe it should be a last option.</t>
   </si>
   <si>
+    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336199</t>
   </si>
   <si>
     <t>I agree but it has to be used as the last source and not used constantly and of course not to hard.</t>
   </si>
   <si>
+    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335090</t>
   </si>
   <si>
     <t>Yes I believe you should spank a child only when they know they are wrong. The child will understand more if he is scared to do the same mistake. Actions speak louder than words.</t>
   </si>
   <si>
+    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
+  </si>
+  <si>
     <t>arg335285</t>
   </si>
   <si>
     <t>spanking is your decision kids can be bad but use it as a last resort.</t>
   </si>
   <si>
+    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334884</t>
   </si>
   <si>
     <t>I believe so, it should be used as a last resort at least because I being a sibling of three, was spanked along with my sister and turned out to be disciplined and on the other hand our youngest sister has never been spanked and she tends to make more mistakes even now that shes 10 than we did.</t>
   </si>
   <si>
+    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
+  </si>
+  <si>
     <t>arg334932</t>
   </si>
   <si>
     <t>Yes, because 1 getting hit helps you be stronger and grow up and 2 it makes you listen , it's not ABUSE it's getting spanked.</t>
   </si>
   <si>
+    <t>125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334886</t>
   </si>
   <si>
     <t>Yes, because then they wont do what they did in fear of getting spanked again. Since they will know the consequence. Although, there is also a line a parent shouldn't cross such as the appropriate spanking and abuse line.</t>
   </si>
   <si>
+    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335124</t>
   </si>
   <si>
     <t>Sometimes that's what a kid needs to behave all those Nos, stops, don't do that, just don't work sometimes.</t>
   </si>
   <si>
+    <t>107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
+  </si>
+  <si>
     <t>arg334893</t>
   </si>
   <si>
     <t>Yes , because if they are afraid of getting spanked then they won't do it again . The parent should only spank them and not go over board and keep hitting them.</t>
   </si>
   <si>
+    <t>160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335098</t>
   </si>
   <si>
     <t>I support this because... I got spanked and I turned out to be a good daughter ..spanking teaches you not to do it again and be scared of doing it again.</t>
   </si>
   <si>
+    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335054</t>
   </si>
   <si>
     <t>I have been spanked once in a while for worse deeds. I think it did more good than harm to be honest. It's like touching fire to be honest, but a lot of it depends on parents and kids. It may do its job it may not, but abuse is never good.</t>
   </si>
   <si>
+    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336043</t>
   </si>
   <si>
     <t>I think spanking should be used if it will teach thee child in the long run but each child responds differently to different punishments while one child just telling them no or grounding them will work on another child it may take a spanking to teach them right and wrong.</t>
   </si>
   <si>
+    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335092</t>
   </si>
   <si>
     <t>I think you should hit you kids because if they did something really bad like crash your car or steal you need to hit them so they know that they should not be doing that.</t>
   </si>
   <si>
+    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336176</t>
   </si>
   <si>
     <t>Yes so they can give the kids a reason not to do it again.</t>
   </si>
   <si>
+    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334938</t>
   </si>
   <si>
     <t>After a spanking I made sure I never did it again to avoid being punished because the second time is always worst because you were told not to already.</t>
   </si>
   <si>
+    <t>151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334921</t>
   </si>
   <si>
     <t>After I was spanked, I never did the same thing twice.. So therefore I would spank my kids, out of love, and on the butt.</t>
   </si>
   <si>
+    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335134</t>
   </si>
   <si>
     <t>I believe spanking is a good option to punish a child if nothing else works.</t>
   </si>
   <si>
+    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334964</t>
   </si>
   <si>
     <t>I agree because they must understand they where wrong. For their actions, they will receive consequences, and from that they will learn to not do it again.</t>
   </si>
   <si>
+    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335089</t>
   </si>
   <si>
     <t>yes because if they fear getting hit than they wont do it again.</t>
   </si>
   <si>
+    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336563</t>
   </si>
   <si>
     <t>Yes because that way the child can learn not to do it again because it really hurt, and i know this from experience.</t>
   </si>
   <si>
+    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334919</t>
   </si>
   <si>
     <t>spanking can be sometimes good for the child to understand but not to the point where you can hurt and should not be used repeatedly.</t>
   </si>
   <si>
+    <t>133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335097</t>
   </si>
   <si>
     <t>In my opinion, I strongly agree that parents should use spanking as an option to discipline their children because the spankings are painful enough for children to learn to avoid doing the wrong things.</t>
   </si>
   <si>
+    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334922</t>
   </si>
   <si>
     <t>I say yes because children are getting more and more violent and they need to get discipline if they decide to act up.</t>
   </si>
   <si>
+    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336222</t>
   </si>
   <si>
     <t>Humans have been raised for thousands of years with not near as much resentment towards spanking and today's kids are the unruliest there are...  There's a trend...  (I do admit it's not purely spanking that's the cause but it's a small part of the bigger picture)</t>
   </si>
   <si>
+    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
+  </si>
+  <si>
     <t>arg335034</t>
   </si>
   <si>
     <t>Yes, because they need to learn in a way that they remember that if they do something bad. They will get hit.</t>
   </si>
   <si>
+    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335047</t>
   </si>
   <si>
     <t>Parents should use spanking as an option to discipline only when it's needed. If the child doesn't follow the correct behavior that they should follow after several times being warned, then that is when the child deserves a spanking.</t>
   </si>
   <si>
+    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336171</t>
   </si>
   <si>
     <t>I believe that spanking you child because it shows then that what they did was wrong and if they dont want the feeling of a but woppen then they wont make the same mistake twice.</t>
   </si>
   <si>
+    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334973</t>
   </si>
   <si>
     <t>Yes, parents should use spanking as an option to discipline their children, but it should be the last option.</t>
   </si>
   <si>
+    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334959</t>
   </si>
   <si>
     <t>yea, because even though there are many other different ways to discipline kids, sometimes it won't work so they need a little spank, just to make them learn they were wrong. don't always be spanking them for no reason, that's bad.</t>
   </si>
   <si>
+    <t>231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334972</t>
   </si>
   <si>
     <t>I believe some parents should spank their kids but only when nessasary because sometimes thats the only way some kids will learn the correct way and listen.</t>
   </si>
   <si>
+    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334898</t>
   </si>
   <si>
     <t>I think parents should use spanking as an option to discipline but there is also a limit for everything so they shouldn't use it every time the kids do something wrong.</t>
   </si>
   <si>
+    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334924</t>
   </si>
   <si>
     <t>because depending on the punishment you give a child it doesn't always work, some kids need need that. because just sitting them in punishment its a possibility they will do it again.</t>
   </si>
   <si>
+    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334923</t>
   </si>
   <si>
     <t>I think that children should get spanked once in a while. I got spanked when I was little but I could definitely say that I did learn lessons. Don't spank your kids though with whatever you find, you don't want to kill them !!</t>
   </si>
   <si>
+    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334920</t>
   </si>
   <si>
     <t>It shouldn't be used constantly but it should be used to get the message across to the child.</t>
   </si>
   <si>
+    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335094</t>
   </si>
   <si>
     <t>It's ok for the parent to spank the child as long as it's not often or they don't use other things like a belt.</t>
+  </si>
+  <si>
+    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -238,40 +342,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -279,361 +387,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B40" activeCellId="0" pane="topLeft" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="241.112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="241.112244897959"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
         <v>71</v>
       </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="36" ht="12.8" spans="1:3">
+      <c s="0" r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c s="0" r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/spanking_pro.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/spanking_pro.xlsx
@@ -28,7 +28,7 @@
     <t>I think spanking should be an option. Although I believe it should be an option, I believe it should be a last option.</t>
   </si>
   <si>
-    <t>118,0.5,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>11.5,5.13,0.77,1.31,0.59,0.5,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.0,0.0,0.22,0.0,0.0,0.0,0.0,21.5</t>
   </si>
   <si>
     <t>arg336199</t>
@@ -37,7 +37,7 @@
     <t>I agree but it has to be used as the last source and not used constantly and of course not to hard.</t>
   </si>
   <si>
-    <t>99,1.0,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>22.0,4.5,0.73,0.65,1.12,1.0,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.05,0.27,0.14,0.14,0.09,0.05,0.0,0.0,0.0,1.75</t>
   </si>
   <si>
     <t>arg335090</t>
@@ -46,7 +46,7 @@
     <t>Yes I believe you should spank a child only when they know they are wrong. The child will understand more if he is scared to do the same mistake. Actions speak louder than words.</t>
   </si>
   <si>
-    <t>178,0.0,11.85,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.33</t>
+    <t>11.33,5.24,1.14,1.96,0.58,0.0,11.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.26,0.03,0.03,0.15,0.03,0.0,0.33,0.33,6.8</t>
   </si>
   <si>
     <t>arg335285</t>
@@ -55,7 +55,7 @@
     <t>spanking is your decision kids can be bad but use it as a last resort.</t>
   </si>
   <si>
-    <t>70,1.0,9.27,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>15.0,4.67,0.5,0.65,0.77,1.0,9.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.13,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg334884</t>
@@ -64,7 +64,7 @@
     <t>I believe so, it should be used as a last resort at least because I being a sibling of three, was spanked along with my sister and turned out to be disciplined and on the other hand our youngest sister has never been spanked and she tends to make more mistakes even now that shes 10 than we did.</t>
   </si>
   <si>
-    <t>295,1.0,12.99,0.0,0.02,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.29,0.0</t>
+    <t>59.0,5.0,1.97,0.65,3.01,1.0,12.99,0.0,0.02,1.0,2,0,0.0,0.02,0.0,0.1,0.07,0.29,0.05,0.05,0.12,0.02,0.0,0.0,0.0,5.2</t>
   </si>
   <si>
     <t>arg334932</t>
@@ -73,7 +73,7 @@
     <t>Yes, because 1 getting hit helps you be stronger and grow up and 2 it makes you listen , it's not ABUSE it's getting spanked.</t>
   </si>
   <si>
-    <t>125,1.0,13.06,0.0,0.0,1.0,0.0,0.04,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>25.0,5.0,0.83,0.65,1.28,1.0,13.06,0.0,0.0,1.0,2,0,0.0,0.04,0.0,0.12,0.04,0.36,0.08,0.08,0.12,0.0,0.0,0.0,0.0,6.25</t>
   </si>
   <si>
     <t>arg334886</t>
@@ -82,7 +82,7 @@
     <t>Yes, because then they wont do what they did in fear of getting spanked again. Since they will know the consequence. Although, there is also a line a parent shouldn't cross such as the appropriate spanking and abuse line.</t>
   </si>
   <si>
-    <t>221,1.33,14.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>13.0,5.67,1.3,1.96,0.66,1.33,14.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.18,0.05,0.05,0.08,0.03,0.0,0.0,0.0,7.43</t>
   </si>
   <si>
     <t>arg335124</t>
@@ -91,7 +91,7 @@
     <t>Sometimes that's what a kid needs to behave all those Nos, stops, don't do that, just don't work sometimes.</t>
   </si>
   <si>
-    <t>107,0.0,12.04,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.14,0.0</t>
+    <t>19.0,5.63,0.63,0.65,0.97,0.0,12.04,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.0,0.0,0.0,0.0,0.0,4.2</t>
   </si>
   <si>
     <t>arg334893</t>
@@ -100,7 +100,7 @@
     <t>Yes , because if they are afraid of getting spanked then they won't do it again . The parent should only spank them and not go over board and keep hitting them.</t>
   </si>
   <si>
-    <t>160,0.5,12.02,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>16.0,5.0,1.07,1.31,0.82,0.5,12.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.25,0.13,0.13,0.13,0.0,0.0,0.0,0.0,10.0</t>
   </si>
   <si>
     <t>arg335098</t>
@@ -109,7 +109,7 @@
     <t>I support this because... I got spanked and I turned out to be a good daughter ..spanking teaches you not to do it again and be scared of doing it again.</t>
   </si>
   <si>
-    <t>153,0.5,10.26,0.0,0.0,3.0,0.0,0.0,0.0,0.0,0.15,0.15,0.0,0.0</t>
+    <t>15.5,4.94,1.04,1.31,0.79,0.5,10.26,0.0,0.0,3.0,0,0,0.0,0.0,0.0,0.1,0.06,0.32,0.06,0.06,0.19,0.0,0.0,0.0,0.0,6.86</t>
   </si>
   <si>
     <t>arg335054</t>
@@ -118,7 +118,7 @@
     <t>I have been spanked once in a while for worse deeds. I think it did more good than harm to be honest. It's like touching fire to be honest, but a lot of it depends on parents and kids. It may do its job it may not, but abuse is never good.</t>
   </si>
   <si>
-    <t>239,0.5,8.04,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>13.0,4.6,1.74,2.62,0.66,0.5,8.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.06,0.27,0.06,0.06,0.13,0.0,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>arg336043</t>
@@ -127,7 +127,7 @@
     <t>I think spanking should be used if it will teach thee child in the long run but each child responds differently to different punishments while one child just telling them no or grounding them will work on another child it may take a spanking to teach them right and wrong.</t>
   </si>
   <si>
-    <t>272,1.0,15.48,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>50.0,5.44,1.67,0.65,2.55,1.0,15.48,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.06,0.24,0.06,0.06,0.12,0.04,0.2,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>arg335092</t>
@@ -136,7 +136,7 @@
     <t>I think you should hit you kids because if they did something really bad like crash your car or steal you need to hit them so they know that they should not be doing that.</t>
   </si>
   <si>
-    <t>171,1.0,11.91,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>35.0,4.89,1.17,0.65,1.79,1.0,11.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.06,0.23,0.09,0.09,0.26,0.0,0.0,0.0,0.0,4.33</t>
   </si>
   <si>
     <t>arg336176</t>
@@ -145,7 +145,7 @@
     <t>Yes so they can give the kids a reason not to do it again.</t>
   </si>
   <si>
-    <t>58,0.0,6.03,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>14.0,4.14,0.47,0.65,0.72,0.0,6.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.07,0.07,0.14,0.0,0.0,0.0,0.0,5.67</t>
   </si>
   <si>
     <t>arg334938</t>
@@ -154,7 +154,7 @@
     <t>After a spanking I made sure I never did it again to avoid being punished because the second time is always worst because you were told not to already.</t>
   </si>
   <si>
-    <t>151,2.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>29.0,5.21,0.97,0.65,1.48,2.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.03,0.07,0.31,0.17,0.17,0.14,0.0,0.0,0.0,0.0,6.57</t>
   </si>
   <si>
     <t>arg334921</t>
@@ -163,7 +163,7 @@
     <t>After I was spanked, I never did the same thing twice.. So therefore I would spank my kids, out of love, and on the butt.</t>
   </si>
   <si>
-    <t>121,0.5,9.67,1.0,0.0,1.5,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>12.5,4.84,0.83,1.31,0.64,0.5,9.67,1.0,0.0,1.5,0,0,0.0,0.0,0.0,0.16,0.04,0.16,0.08,0.08,0.16,0.0,0.0,0.0,0.0,10.2</t>
   </si>
   <si>
     <t>arg335134</t>
@@ -172,7 +172,7 @@
     <t>I believe spanking is a good option to punish a child if nothing else works.</t>
   </si>
   <si>
-    <t>76,0.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
+    <t>15.0,5.07,0.5,0.65,0.77,0.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.27,0.07,0.07,0.07,0.0,0.0,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>arg334964</t>
@@ -181,7 +181,7 @@
     <t>I agree because they must understand they where wrong. For their actions, they will receive consequences, and from that they will learn to not do it again.</t>
   </si>
   <si>
-    <t>155,0.5,14.89,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>13.5,5.74,0.9,1.31,0.69,0.5,14.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.22,0.04,0.04,0.26,0.07,0.0,0.0,0.0,3.57</t>
   </si>
   <si>
     <t>arg335089</t>
@@ -190,7 +190,7 @@
     <t>yes because if they fear getting hit than they wont do it again.</t>
   </si>
   <si>
-    <t>64,1.0,10.42,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>13.0,4.92,0.43,0.65,0.66,1.0,10.42,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.46,0.08,0.08,0.23,0.0,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>arg336563</t>
@@ -199,7 +199,7 @@
     <t>Yes because that way the child can learn not to do it again because it really hurt, and i know this from experience.</t>
   </si>
   <si>
-    <t>116,2.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>23.0,5.04,0.77,0.65,1.17,2.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.13,0.13,0.09,0.04,0.2,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg334919</t>
@@ -208,7 +208,7 @@
     <t>spanking can be sometimes good for the child to understand but not to the point where you can hurt and should not be used repeatedly.</t>
   </si>
   <si>
-    <t>133,1.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>25.0,5.32,0.83,0.65,1.28,1.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.04,0.2,0.12,0.12,0.04,0.08,0.2,0.0,0.0,8.57</t>
   </si>
   <si>
     <t>arg335097</t>
@@ -217,7 +217,7 @@
     <t>In my opinion, I strongly agree that parents should use spanking as an option to discipline their children because the spankings are painful enough for children to learn to avoid doing the wrong things.</t>
   </si>
   <si>
-    <t>202,1.0,17.92,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
+    <t>34.0,5.94,1.14,0.65,1.74,1.0,17.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.06,0.24,0.06,0.06,0.09,0.03,0.0,0.0,0.0,6.29</t>
   </si>
   <si>
     <t>arg334922</t>
@@ -226,7 +226,7 @@
     <t>I say yes because children are getting more and more violent and they need to get discipline if they decide to act up.</t>
   </si>
   <si>
-    <t>118,1.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>23.0,5.13,0.77,0.65,1.17,1.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.13,0.3,0.09,0.09,0.13,0.04,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg336222</t>
@@ -235,7 +235,7 @@
     <t>Humans have been raised for thousands of years with not near as much resentment towards spanking and today's kids are the unruliest there are...  There's a trend...  (I do admit it's not purely spanking that's the cause but it's a small part of the bigger picture)</t>
   </si>
   <si>
-    <t>264,0.5,14.74,0.0,0.0,3.0,0.0,0.02,0.0,0.05,0.1,0.1,0.29,0.67</t>
+    <t>23.0,5.74,1.54,1.31,1.17,0.5,14.74,0.0,0.0,3.0,0,0,0.0,0.02,0.0,0.17,0.11,0.22,0.11,0.11,0.0,0.02,0.2,0.67,0.67,4.0</t>
   </si>
   <si>
     <t>arg335034</t>
@@ -244,7 +244,7 @@
     <t>Yes, because they need to learn in a way that they remember that if they do something bad. They will get hit.</t>
   </si>
   <si>
-    <t>109,0.5,9.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>11.0,4.95,0.73,1.31,0.56,0.5,9.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.0,0.23,0.0,0.0,0.18,0.0,0.0,0.0,0.0,4.5</t>
   </si>
   <si>
     <t>arg335047</t>
@@ -253,7 +253,7 @@
     <t>Parents should use spanking as an option to discipline only when it's needed. If the child doesn't follow the correct behavior that they should follow after several times being warned, then that is when the child deserves a spanking.</t>
   </si>
   <si>
-    <t>233,0.0,16.6,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>19.5,5.97,1.3,1.31,1.0,0.0,16.6,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.08,0.08,0.03,0.03,0.0,0.0,0.0,6.83</t>
   </si>
   <si>
     <t>arg336171</t>
@@ -262,7 +262,7 @@
     <t>I believe that spanking you child because it shows then that what they did was wrong and if they dont want the feeling of a but woppen then they wont make the same mistake twice.</t>
   </si>
   <si>
-    <t>178,2.0,13.09,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>35.0,5.09,1.17,0.65,1.79,2.0,13.09,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,8.57</t>
   </si>
   <si>
     <t>arg334973</t>
@@ -271,7 +271,7 @@
     <t>Yes, parents should use spanking as an option to discipline their children, but it should be the last option.</t>
   </si>
   <si>
-    <t>109,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>19.0,5.74,0.63,0.65,0.97,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.11,0.05,0.0,0.0,0.0,12.6</t>
   </si>
   <si>
     <t>arg334959</t>
@@ -280,7 +280,7 @@
     <t>yea, because even though there are many other different ways to discipline kids, sometimes it won't work so they need a little spank, just to make them learn they were wrong. don't always be spanking them for no reason, that's bad.</t>
   </si>
   <si>
-    <t>231,1.0,13.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>20.5,5.63,1.37,1.31,1.05,1.0,13.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.2,0.12,0.12,0.12,0.02,0.0,0.0,0.0,8.1</t>
   </si>
   <si>
     <t>arg334972</t>
@@ -289,7 +289,7 @@
     <t>I believe some parents should spank their kids but only when nessasary because sometimes thats the only way some kids will learn the correct way and listen.</t>
   </si>
   <si>
-    <t>156,2.0,16.86,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>27.0,5.78,0.9,0.65,1.38,2.0,16.86,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.15,0.07,0.07,0.07,0.0,0.0,0.0,0.0,9.43</t>
   </si>
   <si>
     <t>arg334898</t>
@@ -298,7 +298,7 @@
     <t>I think parents should use spanking as an option to discipline but there is also a limit for everything so they shouldn't use it every time the kids do something wrong.</t>
   </si>
   <si>
-    <t>168,2.0,14.35,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>31.0,5.42,1.04,0.65,1.58,2.0,14.35,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.29,0.06,0.06,0.1,0.03,0.0,0.0,0.0,10.25</t>
   </si>
   <si>
     <t>arg334924</t>
@@ -307,7 +307,7 @@
     <t>because depending on the punishment you give a child it doesn't always work, some kids need need that. because just sitting them in punishment its a possibility they will do it again.</t>
   </si>
   <si>
-    <t>183,1.0,14.87,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>16.0,5.72,1.07,1.31,0.82,1.0,14.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.31,0.09,0.09,0.19,0.06,0.2,0.0,0.0,5.13</t>
   </si>
   <si>
     <t>arg334923</t>
@@ -316,7 +316,7 @@
     <t>I think that children should get spanked once in a while. I got spanked when I was little but I could definitely say that I did learn lessons. Don't spank your kids though with whatever you find, you don't want to kill them !!</t>
   </si>
   <si>
-    <t>226,0.5,10.71,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>11.0,5.14,1.47,2.62,0.56,0.5,10.71,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.09,0.02,0.34,0.05,0.05,0.2,0.0,0.0,0.0,0.0,8.86</t>
   </si>
   <si>
     <t>arg334920</t>
@@ -325,7 +325,7 @@
     <t>It shouldn't be used constantly but it should be used to get the message across to the child.</t>
   </si>
   <si>
-    <t>93,1.0,11.63,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>18.0,5.17,0.6,0.65,0.92,1.0,11.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.33,0.06,0.06,0.11,0.06,0.0,0.0,0.0,5.67</t>
   </si>
   <si>
     <t>arg335094</t>
@@ -334,7 +334,7 @@
     <t>It's ok for the parent to spank the child as long as it's not often or they don't use other things like a belt.</t>
   </si>
   <si>
-    <t>111,0.0,8.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>24.0,4.63,0.8,0.65,1.23,0.0,8.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.13,0.17,0.17,0.04,0.0,0.0,0.0,0.0,9.83</t>
   </si>
 </sst>
 </file>
